--- a/medicine/Handicap/Sauver_ou_périr_(film)/Sauver_ou_périr_(film).xlsx
+++ b/medicine/Handicap/Sauver_ou_périr_(film)/Sauver_ou_périr_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sauver_ou_p%C3%A9rir_(film)</t>
+          <t>Sauver_ou_périr_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauver ou périr est un drame français réalisé par Frédéric Tellier, sorti en 2018.
 Le titre est la devise de la Brigade de sapeurs-pompiers de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sauver_ou_p%C3%A9rir_(film)</t>
+          <t>Sauver_ou_périr_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Franck, sapeur-pompier depuis l'âge de dix-huit ans, est heureux dans son métier. Il vit dans sa caserne avec son épouse et il est père  de jumelles. 
 Un jour, alors qu'il est en intervention, il se sacrifie pour ses hommes et se réveille dans un service hospitalier destiné aux grands brûlés. 
-Le film retrace son parcours du combattant pour retrouver une vie presque normale et réapprendre à vivre[1].
+Le film retrace son parcours du combattant pour retrouver une vie presque normale et réapprendre à vivre.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sauver_ou_p%C3%A9rir_(film)</t>
+          <t>Sauver_ou_périr_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Sauver ou périr
 Réalisation : Frédéric Tellier
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sauver_ou_p%C3%A9rir_(film)</t>
+          <t>Sauver_ou_périr_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Niney : Franck Pasquier, sapeur-pompier de Paris
 Anaïs Demoustier : Cécile Pasquier, l'épouse de Franck
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sauver_ou_p%C3%A9rir_(film)</t>
+          <t>Sauver_ou_périr_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce film est en partie inspiré de plusieurs faits réels.
 </t>
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sauver_ou_p%C3%A9rir_(film)</t>
+          <t>Sauver_ou_périr_(film)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,9 +681,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Réception critique
-La presse francophone est, dans l'ensemble, déçue par ce film. Ainsi, François-Xavier Lerbré estime, dans Maze, que « Sauver ou périr s’apparente plus à une publicité pour rejoindre la caserne qu’à un vrai beau film dramatique »[2]. De son côté, François Lévesque, dans Le Devoir, s'il reconnait la charge émotionnelle véhiculée, déplore que « rien n’étonne ni ne surprend dans ce récit bien intentionné »[3]. En revanche, Julien Dugois, dans Le Mag du Ciné, s'il estime que « chacun des protagonistes (est) un élément calibré à rendre l’ensemble attendrissant », conclut que le film est « un drame qui ne sombre jamais dans le pathos lourdaud »[4].
-Box-office</t>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La presse francophone est, dans l'ensemble, déçue par ce film. Ainsi, François-Xavier Lerbré estime, dans Maze, que « Sauver ou périr s’apparente plus à une publicité pour rejoindre la caserne qu’à un vrai beau film dramatique ». De son côté, François Lévesque, dans Le Devoir, s'il reconnait la charge émotionnelle véhiculée, déplore que « rien n’étonne ni ne surprend dans ce récit bien intentionné ». En revanche, Julien Dugois, dans Le Mag du Ciné, s'il estime que « chacun des protagonistes (est) un élément calibré à rendre l’ensemble attendrissant », conclut que le film est « un drame qui ne sombre jamais dans le pathos lourdaud ».
+</t>
         </is>
       </c>
     </row>
